--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF38A6C-DDBD-4438-9C71-AD713767345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D857E-F400-4762-AF77-0C1916C8FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>Row</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Visual EDA</t>
   </si>
   <si>
-    <t>ASGN 2 due at 8pm EST</t>
-  </si>
-  <si>
     <t>ASGN 2 peer reviews posted</t>
   </si>
   <si>
@@ -552,6 +549,12 @@
   </si>
   <si>
     <t>https://forms.gle/gjHnf3vfb362MnP66</t>
+  </si>
+  <si>
+    <t>ASGN 2 due at 8pm EST (ON FEBUARY 10 now, due to Super Bowl!)</t>
+  </si>
+  <si>
+    <t>update the descript next year</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -854,6 +857,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,16 +1581,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J1" s="45" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1854,7 +1860,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>16</v>
@@ -1885,7 +1891,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>19</v>
@@ -1921,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>19</v>
@@ -1957,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>19</v>
@@ -2093,7 +2099,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>25</v>
@@ -2161,7 +2167,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>25</v>
@@ -2194,7 +2200,7 @@
         <v>45680</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="13" t="s">
@@ -2389,7 +2395,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>25</v>
@@ -2457,7 +2463,7 @@
         <v>34</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>25</v>
@@ -2546,10 +2552,10 @@
         <v>45687</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>36</v>
@@ -3359,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>19</v>
@@ -3726,10 +3732,12 @@
         <v>45697</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="H78" s="19"/>
-      <c r="I78" s="3"/>
+      <c r="I78" s="51" t="s">
+        <v>165</v>
+      </c>
       <c r="J78" s="3">
         <v>19</v>
       </c>
@@ -3758,7 +3766,7 @@
         <v>45699</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="3"/>
@@ -3790,7 +3798,7 @@
         <v>45699</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="3"/>
@@ -3822,7 +3830,7 @@
         <v>45701</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -3886,7 +3894,7 @@
         <v>45702</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -3918,7 +3926,7 @@
         <v>45700</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="3"/>
@@ -3950,7 +3958,7 @@
         <v>45704</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="3"/>
@@ -4056,7 +4064,7 @@
         <v>45706</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H89" s="36"/>
       <c r="I89" s="3"/>
@@ -4088,7 +4096,7 @@
         <v>45706</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H90" s="36"/>
       <c r="I90" s="3"/>
@@ -4142,7 +4150,7 @@
         <v>45706</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4174,7 +4182,7 @@
         <v>45706</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4250,7 +4258,7 @@
         <v>45708</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -4282,7 +4290,7 @@
         <v>45708</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -4314,7 +4322,7 @@
         <v>45707</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="3"/>
@@ -4409,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="25"/>
@@ -4435,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="15"/>
@@ -4461,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="15"/>
@@ -4487,7 +4495,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="15"/>
@@ -4537,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="15"/>
@@ -4640,7 +4648,7 @@
         <v>45713</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H111" s="37"/>
       <c r="I111" s="10"/>
@@ -4694,7 +4702,7 @@
         <v>45713</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="10"/>
@@ -4726,7 +4734,7 @@
         <v>45713</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="10"/>
@@ -4758,7 +4766,7 @@
         <v>45715</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="10"/>
@@ -4790,7 +4798,7 @@
         <v>45715</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="10"/>
@@ -4822,7 +4830,7 @@
         <v>45711</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="3"/>
@@ -4854,7 +4862,7 @@
         <v>45713</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H118" s="36"/>
       <c r="I118" s="10"/>
@@ -4886,7 +4894,7 @@
         <v>45714</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="3"/>
@@ -5010,7 +5018,7 @@
         <v>45720</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="10"/>
@@ -5042,7 +5050,7 @@
         <v>45720</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="10"/>
@@ -5074,7 +5082,7 @@
         <v>45722</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -5106,11 +5114,11 @@
         <v>45723</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J127" s="13">
         <v>45</v>
@@ -5164,11 +5172,11 @@
         <v>45727</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J129" s="13">
         <v>49</v>
@@ -5198,11 +5206,11 @@
         <v>45727</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J130" s="13">
         <v>49</v>
@@ -5232,11 +5240,11 @@
         <v>45729</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J131" s="13">
         <v>51</v>
@@ -5285,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F133" s="42"/>
       <c r="G133" s="25"/>
@@ -5311,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F134" s="42"/>
       <c r="G134" s="15"/>
@@ -5337,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="15"/>
@@ -5363,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="15"/>
@@ -5389,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F137" s="42"/>
       <c r="G137" s="15"/>
@@ -5415,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="15"/>
@@ -5465,12 +5473,12 @@
         <v>11</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F140" s="7"/>
       <c r="G140" s="15"/>
       <c r="H140" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I140" s="13" t="s">
         <v>25</v>
@@ -5495,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="15"/>
@@ -5620,7 +5628,7 @@
         <v>45734</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -5652,7 +5660,7 @@
         <v>45734</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -5684,7 +5692,7 @@
         <v>45736</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -5716,7 +5724,7 @@
         <v>45736</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="3"/>
@@ -5748,7 +5756,7 @@
         <v>45736</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -5780,7 +5788,7 @@
         <v>45737</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="3"/>
@@ -5812,7 +5820,7 @@
         <v>45738</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" s="36"/>
       <c r="I152" s="10"/>
@@ -5914,7 +5922,7 @@
         <v>45740</v>
       </c>
       <c r="G156" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="10"/>
@@ -5946,7 +5954,7 @@
         <v>45741</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H157" s="35"/>
       <c r="I157" s="3"/>
@@ -5978,7 +5986,7 @@
         <v>45741</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -6010,7 +6018,7 @@
         <v>45739</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="10"/>
@@ -6042,7 +6050,7 @@
         <v>45743</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -6074,7 +6082,7 @@
         <v>45746</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="3"/>
@@ -6106,7 +6114,7 @@
         <v>45747</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="10"/>
@@ -6208,7 +6216,7 @@
         <v>45748</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -6240,7 +6248,7 @@
         <v>45750</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -6272,7 +6280,7 @@
         <v>45750</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -6304,7 +6312,7 @@
         <v>45749</v>
       </c>
       <c r="G169" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="10"/>
@@ -6382,7 +6390,7 @@
         <v>45755</v>
       </c>
       <c r="G172" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="3"/>
@@ -6414,7 +6422,7 @@
         <v>45755</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -6446,7 +6454,7 @@
         <v>45757</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -6478,7 +6486,7 @@
         <v>45757</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -6532,7 +6540,7 @@
         <v>45758</v>
       </c>
       <c r="G177" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="3"/>
@@ -6564,11 +6572,11 @@
         <v>45758</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J178" s="3">
         <v>80</v>
@@ -6646,7 +6654,7 @@
         <v>45762</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H181" s="36"/>
       <c r="I181" s="10"/>
@@ -6678,7 +6686,7 @@
         <v>45762</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -6710,7 +6718,7 @@
         <v>45762</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -6742,7 +6750,7 @@
         <v>45764</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -6774,7 +6782,7 @@
         <v>45764</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -6806,7 +6814,7 @@
         <v>45765</v>
       </c>
       <c r="G186" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="3"/>
@@ -6886,7 +6894,7 @@
         <v>45767</v>
       </c>
       <c r="G189" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="3"/>
@@ -6918,7 +6926,7 @@
         <v>45768</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H190" s="36"/>
       <c r="I190" s="3"/>
@@ -6950,7 +6958,7 @@
         <v>45768</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H191" s="36"/>
       <c r="I191" s="3"/>
@@ -6982,7 +6990,7 @@
         <v>45769</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -7036,7 +7044,7 @@
         <v>45770</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="3"/>
@@ -7068,7 +7076,7 @@
         <v>45771</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -7148,7 +7156,7 @@
         <v>45776</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -7180,7 +7188,7 @@
         <v>45774</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="10"/>
@@ -7212,7 +7220,7 @@
         <v>45778</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -7244,7 +7252,7 @@
         <v>45778</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="3"/>
@@ -7276,7 +7284,7 @@
         <v>45778</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="3"/>
@@ -7308,7 +7316,7 @@
         <v>45779</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="3"/>
@@ -7340,7 +7348,7 @@
         <v>45779</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="3"/>
@@ -7392,11 +7400,11 @@
         <v>45794</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J206" s="3">
         <v>116</v>
